--- a/data/processed/X_train_sin_outliers.xlsx
+++ b/data/processed/X_train_sin_outliers.xlsx
@@ -483,7 +483,7 @@
         <v>84</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>13.35</v>
       </c>
       <c r="G2" t="n">
         <v>0.304</v>
@@ -521,7 +521,7 @@
         <v>28.2</v>
       </c>
       <c r="G3" t="n">
-        <v>1.282</v>
+        <v>1.2</v>
       </c>
       <c r="H3" t="n">
         <v>50</v>
@@ -639,7 +639,7 @@
         <v>132</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -986,7 +986,7 @@
         <v>240</v>
       </c>
       <c r="F21" t="n">
-        <v>57.3</v>
+        <v>50.55</v>
       </c>
       <c r="G21" t="n">
         <v>0.88</v>
@@ -1275,7 +1275,7 @@
         <v>43.3</v>
       </c>
       <c r="G32" t="n">
-        <v>1.224</v>
+        <v>1.2</v>
       </c>
       <c r="H32" t="n">
         <v>31</v>
@@ -1471,7 +1471,7 @@
         <v>129</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D40" t="n">
         <v>30</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>13.35</v>
       </c>
       <c r="G44" t="n">
         <v>0.572</v>
@@ -1769,7 +1769,7 @@
         <v>27.7</v>
       </c>
       <c r="G51" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H51" t="n">
         <v>25</v>
@@ -2104,7 +2104,7 @@
         <v>318.125</v>
       </c>
       <c r="F64" t="n">
-        <v>52.3</v>
+        <v>50.55</v>
       </c>
       <c r="G64" t="n">
         <v>0.427</v>
@@ -2329,7 +2329,7 @@
         <v>129</v>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D73" t="n">
         <v>0</v>
@@ -2355,7 +2355,7 @@
         <v>119</v>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D74" t="n">
         <v>0</v>
@@ -2589,7 +2589,7 @@
         <v>103</v>
       </c>
       <c r="C83" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D83" t="n">
         <v>38</v>
@@ -2627,7 +2627,7 @@
         <v>28.5</v>
       </c>
       <c r="G84" t="n">
-        <v>1.699</v>
+        <v>1.2</v>
       </c>
       <c r="H84" t="n">
         <v>25</v>
@@ -2693,7 +2693,7 @@
         <v>138</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D87" t="n">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>1</v>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>37.125</v>
       </c>
       <c r="C99" t="n">
         <v>74</v>
@@ -3499,7 +3499,7 @@
         <v>90</v>
       </c>
       <c r="C118" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D118" t="n">
         <v>0</v>
@@ -3837,7 +3837,7 @@
         <v>171</v>
       </c>
       <c r="C131" t="n">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D131" t="n">
         <v>24</v>
@@ -4071,7 +4071,7 @@
         <v>129</v>
       </c>
       <c r="C140" t="n">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D140" t="n">
         <v>46</v>
@@ -4080,7 +4080,7 @@
         <v>130</v>
       </c>
       <c r="F140" t="n">
-        <v>67.09999999999999</v>
+        <v>50.55</v>
       </c>
       <c r="G140" t="n">
         <v>0.319</v>
@@ -4227,7 +4227,7 @@
         <v>100</v>
       </c>
       <c r="C146" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D146" t="n">
         <v>0</v>
@@ -4409,7 +4409,7 @@
         <v>73</v>
       </c>
       <c r="C153" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D153" t="n">
         <v>0</v>
@@ -4432,7 +4432,7 @@
         <v>1</v>
       </c>
       <c r="B154" t="n">
-        <v>0</v>
+        <v>37.125</v>
       </c>
       <c r="C154" t="n">
         <v>68</v>
@@ -4461,7 +4461,7 @@
         <v>119</v>
       </c>
       <c r="C155" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D155" t="n">
         <v>0</v>
@@ -4487,7 +4487,7 @@
         <v>94</v>
       </c>
       <c r="C156" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D156" t="n">
         <v>0</v>
@@ -4496,7 +4496,7 @@
         <v>0</v>
       </c>
       <c r="F156" t="n">
-        <v>0</v>
+        <v>13.35</v>
       </c>
       <c r="G156" t="n">
         <v>0.256</v>
@@ -4522,7 +4522,7 @@
         <v>0</v>
       </c>
       <c r="F157" t="n">
-        <v>0</v>
+        <v>13.35</v>
       </c>
       <c r="G157" t="n">
         <v>0.232</v>
@@ -4851,7 +4851,7 @@
         <v>180</v>
       </c>
       <c r="C170" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D170" t="n">
         <v>0</v>
@@ -4877,7 +4877,7 @@
         <v>114</v>
       </c>
       <c r="C171" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D171" t="n">
         <v>0</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0</v>
+        <v>13.35</v>
       </c>
       <c r="G171" t="n">
         <v>0.189</v>
@@ -5030,7 +5030,7 @@
         <v>1</v>
       </c>
       <c r="B177" t="n">
-        <v>0</v>
+        <v>37.125</v>
       </c>
       <c r="C177" t="n">
         <v>48</v>
@@ -5319,7 +5319,7 @@
         <v>88</v>
       </c>
       <c r="C188" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D188" t="n">
         <v>42</v>
@@ -5328,7 +5328,7 @@
         <v>99</v>
       </c>
       <c r="F188" t="n">
-        <v>55</v>
+        <v>50.55</v>
       </c>
       <c r="G188" t="n">
         <v>0.496</v>
@@ -5643,7 +5643,7 @@
         <v>36.7</v>
       </c>
       <c r="G200" t="n">
-        <v>2.329</v>
+        <v>1.2</v>
       </c>
       <c r="H200" t="n">
         <v>31</v>
@@ -5709,7 +5709,7 @@
         <v>91</v>
       </c>
       <c r="C203" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D203" t="n">
         <v>0</v>
@@ -6096,7 +6096,7 @@
         <v>5</v>
       </c>
       <c r="B218" t="n">
-        <v>0</v>
+        <v>37.125</v>
       </c>
       <c r="C218" t="n">
         <v>80</v>
@@ -6134,10 +6134,10 @@
         <v>89</v>
       </c>
       <c r="F219" t="n">
-        <v>0</v>
+        <v>13.35</v>
       </c>
       <c r="G219" t="n">
-        <v>1.731</v>
+        <v>1.2</v>
       </c>
       <c r="H219" t="n">
         <v>21</v>
@@ -6177,7 +6177,7 @@
         <v>141</v>
       </c>
       <c r="C221" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D221" t="n">
         <v>0</v>
@@ -6397,7 +6397,7 @@
         <v>39</v>
       </c>
       <c r="G229" t="n">
-        <v>1.222</v>
+        <v>1.2</v>
       </c>
       <c r="H229" t="n">
         <v>33</v>
@@ -6420,10 +6420,10 @@
         <v>14</v>
       </c>
       <c r="F230" t="n">
-        <v>59.4</v>
+        <v>50.55</v>
       </c>
       <c r="G230" t="n">
-        <v>2.42</v>
+        <v>1.2</v>
       </c>
       <c r="H230" t="n">
         <v>25</v>
@@ -7165,7 +7165,7 @@
         <v>87</v>
       </c>
       <c r="C259" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D259" t="n">
         <v>23</v>
@@ -7307,7 +7307,7 @@
         <v>27.1</v>
       </c>
       <c r="G264" t="n">
-        <v>1.441</v>
+        <v>1.2</v>
       </c>
       <c r="H264" t="n">
         <v>57</v>
@@ -7567,7 +7567,7 @@
         <v>30</v>
       </c>
       <c r="G274" t="n">
-        <v>1.213</v>
+        <v>1.2</v>
       </c>
       <c r="H274" t="n">
         <v>49</v>
@@ -7841,7 +7841,7 @@
         <v>99</v>
       </c>
       <c r="C285" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D285" t="n">
         <v>0</v>
@@ -8075,7 +8075,7 @@
         <v>119</v>
       </c>
       <c r="C294" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D294" t="n">
         <v>0</v>
@@ -8269,7 +8269,7 @@
         <v>40.8</v>
       </c>
       <c r="G301" t="n">
-        <v>1.461</v>
+        <v>1.2</v>
       </c>
       <c r="H301" t="n">
         <v>45</v>
@@ -8711,7 +8711,7 @@
         <v>42</v>
       </c>
       <c r="G318" t="n">
-        <v>1.893</v>
+        <v>1.2</v>
       </c>
       <c r="H318" t="n">
         <v>25</v>
@@ -8945,7 +8945,7 @@
         <v>24.2</v>
       </c>
       <c r="G327" t="n">
-        <v>1.698</v>
+        <v>1.2</v>
       </c>
       <c r="H327" t="n">
         <v>28</v>
@@ -9595,7 +9595,7 @@
         <v>38.4</v>
       </c>
       <c r="G352" t="n">
-        <v>2.137</v>
+        <v>1.2</v>
       </c>
       <c r="H352" t="n">
         <v>25</v>
@@ -10441,7 +10441,7 @@
         <v>89</v>
       </c>
       <c r="C385" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D385" t="n">
         <v>19</v>
@@ -10606,7 +10606,7 @@
         <v>0</v>
       </c>
       <c r="F391" t="n">
-        <v>52.9</v>
+        <v>50.55</v>
       </c>
       <c r="G391" t="n">
         <v>0.209</v>
@@ -10840,7 +10840,7 @@
         <v>0</v>
       </c>
       <c r="F400" t="n">
-        <v>0</v>
+        <v>13.35</v>
       </c>
       <c r="G400" t="n">
         <v>0.64</v>
@@ -10921,7 +10921,7 @@
         <v>30.5</v>
       </c>
       <c r="G403" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H403" t="n">
         <v>34</v>
@@ -11611,7 +11611,7 @@
         <v>96</v>
       </c>
       <c r="C430" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D430" t="n">
         <v>0</v>
@@ -11637,7 +11637,7 @@
         <v>99</v>
       </c>
       <c r="C431" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D431" t="n">
         <v>0</v>
@@ -12443,7 +12443,7 @@
         <v>116</v>
       </c>
       <c r="C462" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D462" t="n">
         <v>0</v>
@@ -13261,7 +13261,7 @@
         <v>43.1</v>
       </c>
       <c r="G493" t="n">
-        <v>2.288</v>
+        <v>1.2</v>
       </c>
       <c r="H493" t="n">
         <v>33</v>
@@ -13454,7 +13454,7 @@
         <v>6</v>
       </c>
       <c r="B501" t="n">
-        <v>0</v>
+        <v>37.125</v>
       </c>
       <c r="C501" t="n">
         <v>68</v>
@@ -14197,7 +14197,7 @@
         <v>32</v>
       </c>
       <c r="G529" t="n">
-        <v>1.321</v>
+        <v>1.2</v>
       </c>
       <c r="H529" t="n">
         <v>33</v>
@@ -14419,7 +14419,7 @@
         <v>146</v>
       </c>
       <c r="C538" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D538" t="n">
         <v>0</v>
@@ -15251,7 +15251,7 @@
         <v>145</v>
       </c>
       <c r="C570" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D570" t="n">
         <v>0</v>
@@ -15341,7 +15341,7 @@
         <v>27.1</v>
       </c>
       <c r="G573" t="n">
-        <v>1.318</v>
+        <v>1.2</v>
       </c>
       <c r="H573" t="n">
         <v>33</v>
@@ -15575,7 +15575,7 @@
         <v>40.5</v>
       </c>
       <c r="G582" t="n">
-        <v>1.781</v>
+        <v>1.2</v>
       </c>
       <c r="H582" t="n">
         <v>44</v>
@@ -15939,7 +15939,7 @@
         <v>30.5</v>
       </c>
       <c r="G596" t="n">
-        <v>1.391</v>
+        <v>1.2</v>
       </c>
       <c r="H596" t="n">
         <v>25</v>
@@ -15965,7 +15965,7 @@
         <v>42.9</v>
       </c>
       <c r="G597" t="n">
-        <v>1.394</v>
+        <v>1.2</v>
       </c>
       <c r="H597" t="n">
         <v>22</v>
@@ -16147,7 +16147,7 @@
         <v>23.1</v>
       </c>
       <c r="G604" t="n">
-        <v>1.476</v>
+        <v>1.2</v>
       </c>
       <c r="H604" t="n">
         <v>46</v>
@@ -16343,7 +16343,7 @@
         <v>96</v>
       </c>
       <c r="C612" t="n">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="D612" t="n">
         <v>0</v>
@@ -16395,7 +16395,7 @@
         <v>141</v>
       </c>
       <c r="C614" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D614" t="n">
         <v>0</v>
